--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Ccr3</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>1.154656307087156</v>
+        <v>0.002245373190666667</v>
       </c>
       <c r="R2">
-        <v>1.154656307087156</v>
+        <v>0.020208358716</v>
       </c>
       <c r="S2">
-        <v>0.02732223735284674</v>
+        <v>2.928141612636976E-05</v>
       </c>
       <c r="T2">
-        <v>0.02732223735284674</v>
+        <v>2.928141612636977E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>9.98925018056247</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>9.98925018056247</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J3">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N3">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q3">
-        <v>9.09440025929737</v>
+        <v>0.00535402816</v>
       </c>
       <c r="R3">
-        <v>9.09440025929737</v>
+        <v>0.04818625344</v>
       </c>
       <c r="S3">
-        <v>0.2151976834501957</v>
+        <v>6.982069936388379E-05</v>
       </c>
       <c r="T3">
-        <v>0.2151976834501957</v>
+        <v>6.982069936388379E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.021814</v>
+      </c>
+      <c r="H4">
+        <v>0.065442</v>
+      </c>
+      <c r="I4">
+        <v>0.0003864745254839945</v>
+      </c>
+      <c r="J4">
+        <v>0.0003864745254839945</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.030592</v>
+      </c>
+      <c r="O4">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P4">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q4">
+        <v>0.02203644462933333</v>
+      </c>
+      <c r="R4">
+        <v>0.198328001664</v>
+      </c>
+      <c r="S4">
+        <v>0.0002873724099937409</v>
+      </c>
+      <c r="T4">
+        <v>0.0002873724099937409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J5">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.308798</v>
+      </c>
+      <c r="O5">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P5">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q5">
+        <v>0.1388417224491111</v>
+      </c>
+      <c r="R5">
+        <v>1.249575502042</v>
+      </c>
+      <c r="S5">
+        <v>0.001810604253953565</v>
+      </c>
+      <c r="T5">
+        <v>0.001810604253953566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H6">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J6">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.24544</v>
+      </c>
+      <c r="N6">
+        <v>0.73632</v>
+      </c>
+      <c r="O6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q6">
+        <v>0.3310641165866666</v>
+      </c>
+      <c r="R6">
+        <v>2.97957704928</v>
+      </c>
+      <c r="S6">
+        <v>0.004317334063922335</v>
+      </c>
+      <c r="T6">
+        <v>0.004317334063922334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J7">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.030592</v>
+      </c>
+      <c r="O7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q7">
+        <v>1.362614438307556</v>
+      </c>
+      <c r="R7">
+        <v>12.263529944768</v>
+      </c>
+      <c r="S7">
+        <v>0.01776955410073136</v>
+      </c>
+      <c r="T7">
+        <v>0.01776955410073136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.462627</v>
+      </c>
+      <c r="H8">
+        <v>55.387881</v>
+      </c>
+      <c r="I8">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J8">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>1.900407430782</v>
+      </c>
+      <c r="R8">
+        <v>17.103666877038</v>
+      </c>
+      <c r="S8">
+        <v>0.02478279380090537</v>
+      </c>
+      <c r="T8">
+        <v>0.02478279380090538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.462627</v>
+      </c>
+      <c r="H9">
+        <v>55.387881</v>
+      </c>
+      <c r="I9">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J9">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>4.53146717088</v>
+      </c>
+      <c r="R9">
+        <v>40.78320453792</v>
+      </c>
+      <c r="S9">
+        <v>0.0590938630803394</v>
+      </c>
+      <c r="T9">
+        <v>0.0590938630803394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.462627</v>
+      </c>
+      <c r="H10">
+        <v>55.387881</v>
+      </c>
+      <c r="I10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>18.650896561728</v>
+      </c>
+      <c r="R10">
+        <v>167.858069055552</v>
+      </c>
+      <c r="S10">
+        <v>0.2432222249842079</v>
+      </c>
+      <c r="T10">
+        <v>0.2432222249842079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H11">
+        <v>107.809532</v>
+      </c>
+      <c r="I11">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J11">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.308798</v>
+      </c>
+      <c r="O11">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P11">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q11">
+        <v>3.699040873615112</v>
+      </c>
+      <c r="R11">
+        <v>33.29136786253601</v>
+      </c>
+      <c r="S11">
+        <v>0.04823837549098709</v>
+      </c>
+      <c r="T11">
+        <v>0.0482383754909871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H12">
+        <v>107.809532</v>
+      </c>
+      <c r="I12">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J12">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.24544</v>
+      </c>
+      <c r="N12">
+        <v>0.73632</v>
+      </c>
+      <c r="O12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q12">
+        <v>8.820257178026667</v>
+      </c>
+      <c r="R12">
+        <v>79.38231460224</v>
+      </c>
+      <c r="S12">
+        <v>0.1150230268380094</v>
+      </c>
+      <c r="T12">
+        <v>0.1150230268380094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H13">
+        <v>107.809532</v>
+      </c>
+      <c r="I13">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J13">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.030592</v>
+      </c>
+      <c r="O13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q13">
+        <v>36.30296724477156</v>
+      </c>
+      <c r="R13">
+        <v>326.726705202944</v>
+      </c>
+      <c r="S13">
+        <v>0.4734189821695139</v>
+      </c>
+      <c r="T13">
+        <v>0.4734189821695139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.178527</v>
+      </c>
+      <c r="H14">
+        <v>0.535581</v>
+      </c>
+      <c r="I14">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J14">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.308798</v>
+      </c>
+      <c r="O14">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P14">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q14">
+        <v>0.018376260182</v>
+      </c>
+      <c r="R14">
+        <v>0.165386341638</v>
+      </c>
+      <c r="S14">
+        <v>0.0002396407525805636</v>
+      </c>
+      <c r="T14">
+        <v>0.0002396407525805637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.178527</v>
+      </c>
+      <c r="H15">
+        <v>0.535581</v>
+      </c>
+      <c r="I15">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J15">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.24544</v>
+      </c>
+      <c r="N15">
+        <v>0.73632</v>
+      </c>
+      <c r="O15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q15">
+        <v>0.04381766687999999</v>
+      </c>
+      <c r="R15">
+        <v>0.39435900192</v>
+      </c>
+      <c r="S15">
+        <v>0.0005714165212861501</v>
+      </c>
+      <c r="T15">
+        <v>0.0005714165212861501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.178527</v>
+      </c>
+      <c r="H16">
+        <v>0.535581</v>
+      </c>
+      <c r="I16">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J16">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.030592</v>
+      </c>
+      <c r="O16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q16">
+        <v>0.180347499328</v>
+      </c>
+      <c r="R16">
+        <v>1.623127493952</v>
+      </c>
+      <c r="S16">
+        <v>0.00235187192807154</v>
+      </c>
+      <c r="T16">
+        <v>0.00235187192807154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="H4">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="I4">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="J4">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="N4">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>32.0116226077114</v>
-      </c>
-      <c r="R4">
-        <v>32.0116226077114</v>
-      </c>
-      <c r="S4">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="T4">
-        <v>0.7574800791969577</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.48568</v>
+      </c>
+      <c r="I17">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J17">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.308798</v>
+      </c>
+      <c r="O17">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P17">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q17">
+        <v>0.05097500140444445</v>
+      </c>
+      <c r="R17">
+        <v>0.45877501264</v>
+      </c>
+      <c r="S17">
+        <v>0.0006647537408793288</v>
+      </c>
+      <c r="T17">
+        <v>0.0006647537408793289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.48568</v>
+      </c>
+      <c r="I18">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J18">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.24544</v>
+      </c>
+      <c r="N18">
+        <v>0.73632</v>
+      </c>
+      <c r="O18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q18">
+        <v>0.1215484330666667</v>
+      </c>
+      <c r="R18">
+        <v>1.0939358976</v>
+      </c>
+      <c r="S18">
+        <v>0.001585086284510481</v>
+      </c>
+      <c r="T18">
+        <v>0.001585086284510481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.48568</v>
+      </c>
+      <c r="I19">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J19">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.030592</v>
+      </c>
+      <c r="O19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q19">
+        <v>0.5002766580622223</v>
+      </c>
+      <c r="R19">
+        <v>4.502489922560001</v>
+      </c>
+      <c r="S19">
+        <v>0.006523997464617539</v>
+      </c>
+      <c r="T19">
+        <v>0.006523997464617539</v>
       </c>
     </row>
   </sheetData>
